--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AR_50_9.xlsx
@@ -369,202 +369,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>-0.1634715480938964</v>
-      </c>
-      <c r="D3">
-        <v>-2.503026633163052</v>
-      </c>
       <c r="E3">
-        <v>-1.31761954538927</v>
+        <v>-1.317619545389281</v>
       </c>
       <c r="F3">
-        <v>-1.31761954538927</v>
+        <v>-1.317619545389281</v>
       </c>
       <c r="G3">
-        <v>-1.31761954538927</v>
+        <v>-1.317619545389281</v>
       </c>
       <c r="H3">
-        <v>-1.31761954538927</v>
+        <v>-1.317619545389281</v>
       </c>
       <c r="I3">
-        <v>-1.31761954538927</v>
+        <v>-1.317619545389281</v>
       </c>
       <c r="J3">
-        <v>-1.31761954538927</v>
+        <v>-1.317619545389281</v>
       </c>
       <c r="K3">
         <v>-1.31761954538927</v>
@@ -692,26 +683,11 @@
       <c r="AZ3">
         <v>-1.31761954538927</v>
       </c>
-      <c r="BA3">
-        <v>-1.31761954538927</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>1.891388820389239</v>
-      </c>
-      <c r="D4">
-        <v>-1.410155083055242</v>
-      </c>
-      <c r="E4">
-        <v>0.6888449045935552</v>
-      </c>
-      <c r="F4">
-        <v>0.1692474513351083</v>
-      </c>
       <c r="G4">
         <v>2.771597318554297</v>
       </c>
@@ -850,32 +826,11 @@
       <c r="AZ4">
         <v>2.771597318554297</v>
       </c>
-      <c r="BA4">
-        <v>2.771597318554297</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>-0.1898634176700442</v>
-      </c>
-      <c r="D5">
-        <v>-2.792894024588211</v>
-      </c>
-      <c r="E5">
-        <v>0.8150163191371407</v>
-      </c>
-      <c r="F5">
-        <v>-0.7023952319652582</v>
-      </c>
-      <c r="G5">
-        <v>3.609425886625339</v>
-      </c>
-      <c r="H5">
-        <v>3.628343599698969</v>
-      </c>
       <c r="I5">
         <v>1.799362536952542</v>
       </c>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>1.799362536952542</v>
       </c>
-      <c r="BA5">
-        <v>1.799362536952542</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.6520556106589193</v>
-      </c>
-      <c r="F6">
-        <v>-1.2823697933527</v>
-      </c>
-      <c r="G6">
-        <v>-2.340942291090131</v>
-      </c>
-      <c r="H6">
-        <v>1.585639835533792</v>
-      </c>
-      <c r="I6">
-        <v>1.169339034160743</v>
-      </c>
-      <c r="J6">
-        <v>0.6019339353565023</v>
-      </c>
       <c r="K6">
         <v>2.123182427147152</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>2.123182427147152</v>
       </c>
-      <c r="BA6">
-        <v>2.123182427147152</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>-0.1273285226549681</v>
-      </c>
-      <c r="H7">
-        <v>1.076680055599222</v>
-      </c>
-      <c r="I7">
-        <v>2.48996578742573</v>
-      </c>
-      <c r="J7">
-        <v>2.663814986077173</v>
-      </c>
       <c r="K7">
-        <v>4.818619766830312</v>
+        <v>4.792854588620821</v>
       </c>
       <c r="L7">
-        <v>4.990675812925582</v>
+        <v>4.880442637054072</v>
       </c>
       <c r="M7">
         <v>7.317297369612819</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>7.317297369612819</v>
       </c>
-      <c r="BA7">
-        <v>7.317297369612819</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>0.9290327582933022</v>
-      </c>
-      <c r="J8">
-        <v>0.8496349075146847</v>
-      </c>
       <c r="K8">
-        <v>2.023566256548803</v>
+        <v>1.616393216762324</v>
       </c>
       <c r="L8">
-        <v>2.044451981030071</v>
+        <v>1.641301872652501</v>
       </c>
       <c r="M8">
-        <v>6.33415002955966</v>
+        <v>7.239454936865775</v>
       </c>
       <c r="N8">
-        <v>5.969804644981291</v>
+        <v>5.941867202078877</v>
       </c>
       <c r="O8">
         <v>4.260319658857736</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>4.260319658857736</v>
       </c>
-      <c r="BA8">
-        <v>4.260319658857736</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>1.644663494202292</v>
-      </c>
       <c r="L9">
-        <v>1.676402945036592</v>
+        <v>1.577140242525665</v>
       </c>
       <c r="M9">
-        <v>2.500747887155219</v>
+        <v>3.107753298997817</v>
       </c>
       <c r="N9">
-        <v>2.81553484302739</v>
+        <v>2.672847571394987</v>
       </c>
       <c r="O9">
-        <v>1.29595620404217</v>
+        <v>0.4361429468412448</v>
       </c>
       <c r="P9">
-        <v>0.5177688839717476</v>
+        <v>0.292749233164491</v>
       </c>
       <c r="Q9">
         <v>-0.05262415810141086</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>-0.05262415810141086</v>
       </c>
-      <c r="BA9">
-        <v>-0.05262415810141086</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>2.693973404745775</v>
-      </c>
       <c r="N10">
-        <v>2.700536539615528</v>
+        <v>2.668903200194506</v>
       </c>
       <c r="O10">
-        <v>3.353889722800885</v>
+        <v>2.107195049295729</v>
       </c>
       <c r="P10">
-        <v>3.108343210284747</v>
+        <v>2.181874035977249</v>
       </c>
       <c r="Q10">
-        <v>1.191891383640931</v>
+        <v>1.392195163617171</v>
       </c>
       <c r="R10">
-        <v>2.170064026854179</v>
+        <v>2.032207428223742</v>
       </c>
       <c r="S10">
         <v>1.459778471779982</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>1.459778471779982</v>
       </c>
-      <c r="BA10">
-        <v>1.459778471779982</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>2.42994320179164</v>
-      </c>
       <c r="P11">
-        <v>2.310275639508652</v>
+        <v>2.116805664817756</v>
       </c>
       <c r="Q11">
-        <v>2.202384637692645</v>
+        <v>1.952530827880228</v>
       </c>
       <c r="R11">
-        <v>2.605949513341166</v>
+        <v>2.13692496326825</v>
       </c>
       <c r="S11">
-        <v>2.283682996337033</v>
+        <v>1.493220091771108</v>
       </c>
       <c r="T11">
-        <v>2.91162218972072</v>
+        <v>2.775332754349846</v>
       </c>
       <c r="U11">
         <v>3.002208343813528</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>3.002208343813528</v>
       </c>
-      <c r="BA11">
-        <v>3.002208343813528</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>1.996081671362715</v>
-      </c>
       <c r="R12">
-        <v>2.494079012252981</v>
+        <v>2.064081081388358</v>
       </c>
       <c r="S12">
-        <v>2.802188955976592</v>
+        <v>1.928696216909276</v>
       </c>
       <c r="T12">
-        <v>2.91103534844559</v>
+        <v>2.200426660963761</v>
       </c>
       <c r="U12">
-        <v>3.141368102642828</v>
+        <v>2.622364272988187</v>
       </c>
       <c r="V12">
-        <v>3.609713327497399</v>
+        <v>3.2651197821016</v>
       </c>
       <c r="W12">
-        <v>3.737230524212798</v>
+        <v>3.565025829754953</v>
       </c>
       <c r="X12">
-        <v>3.951369010811856</v>
+        <v>4.01493878081518</v>
       </c>
       <c r="Y12">
         <v>4.020433260014977</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>4.020433260014977</v>
       </c>
-      <c r="BA12">
-        <v>4.020433260014977</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>2.184748185180241</v>
-      </c>
-      <c r="S13">
-        <v>2.127850472039139</v>
-      </c>
       <c r="T13">
-        <v>2.494065902227693</v>
+        <v>2.083217522782399</v>
       </c>
       <c r="U13">
-        <v>2.638805331465632</v>
+        <v>2.156473785802171</v>
       </c>
       <c r="V13">
-        <v>2.681588411688174</v>
+        <v>2.271936475508851</v>
       </c>
       <c r="W13">
-        <v>3.011320934469008</v>
+        <v>2.446228176258058</v>
       </c>
       <c r="X13">
-        <v>2.814393891325029</v>
+        <v>3.091110147865495</v>
       </c>
       <c r="Y13">
-        <v>3.151661456848687</v>
+        <v>3.113086948791377</v>
       </c>
       <c r="Z13">
-        <v>3.414265482440926</v>
+        <v>3.283136334808323</v>
       </c>
       <c r="AA13">
-        <v>3.498193990879561</v>
+        <v>3.444206290325491</v>
       </c>
       <c r="AB13">
-        <v>3.473437336652374</v>
+        <v>3.479628752085517</v>
       </c>
       <c r="AC13">
         <v>3.53224976671227</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>3.53224976671227</v>
       </c>
-      <c r="BA13">
-        <v>3.53224976671227</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>2.20949737103695</v>
-      </c>
-      <c r="U14">
-        <v>2.252924883842367</v>
-      </c>
-      <c r="V14">
-        <v>2.302001931498299</v>
-      </c>
       <c r="W14">
-        <v>2.350532762566981</v>
+        <v>2.260904903527239</v>
       </c>
       <c r="X14">
-        <v>2.542389131357292</v>
+        <v>2.369764785923656</v>
       </c>
       <c r="Y14">
-        <v>2.577304619443699</v>
+        <v>2.373113736336396</v>
       </c>
       <c r="Z14">
-        <v>2.521821437172833</v>
+        <v>2.403408536719187</v>
       </c>
       <c r="AA14">
-        <v>2.473437657144562</v>
+        <v>2.496958452261078</v>
       </c>
       <c r="AB14">
-        <v>2.371660794972863</v>
+        <v>2.54748094003614</v>
       </c>
       <c r="AC14">
-        <v>2.492295186821214</v>
+        <v>2.757421718286168</v>
       </c>
       <c r="AD14">
-        <v>2.15810425970917</v>
+        <v>2.31260691849986</v>
       </c>
       <c r="AE14">
-        <v>2.068108937069524</v>
+        <v>2.667234932970275</v>
       </c>
       <c r="AF14">
-        <v>-0.6257981900360754</v>
+        <v>-0.985458715495402</v>
       </c>
       <c r="AG14">
         <v>-0.985458715495402</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>-0.985458715495402</v>
       </c>
-      <c r="BA14">
-        <v>-0.985458715495402</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>2.285623054231078</v>
-      </c>
-      <c r="W15">
-        <v>2.33012567918025</v>
-      </c>
-      <c r="X15">
-        <v>2.354558686406971</v>
-      </c>
-      <c r="Y15">
-        <v>2.579289986090805</v>
-      </c>
-      <c r="Z15">
-        <v>2.337288637895485</v>
-      </c>
       <c r="AA15">
-        <v>2.284614103043059</v>
+        <v>2.400584622094115</v>
       </c>
       <c r="AB15">
-        <v>2.334351484238573</v>
+        <v>2.408484542873435</v>
       </c>
       <c r="AC15">
-        <v>1.646610545736693</v>
+        <v>2.438756968913824</v>
       </c>
       <c r="AD15">
-        <v>1.702828994658501</v>
+        <v>2.363182008239928</v>
       </c>
       <c r="AE15">
-        <v>1.339443560148146</v>
+        <v>2.567662999186382</v>
       </c>
       <c r="AF15">
-        <v>0.02822784966425296</v>
+        <v>-1.999977666418695</v>
       </c>
       <c r="AG15">
-        <v>-1.158677136920438</v>
+        <v>-1.373617952268746</v>
       </c>
       <c r="AH15">
-        <v>-0.5625294724799446</v>
+        <v>-4.853362183897836</v>
       </c>
       <c r="AI15">
-        <v>-3.230460817064207</v>
+        <v>-4.511102905979703</v>
       </c>
       <c r="AJ15">
-        <v>-4.251052026148628</v>
+        <v>-4.365687260408224</v>
       </c>
       <c r="AK15">
         <v>-4.365687260408224</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>-4.365687260408224</v>
       </c>
-      <c r="BA15">
-        <v>-4.365687260408224</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>2.908924508106869</v>
-      </c>
-      <c r="Z16">
-        <v>2.906931869520246</v>
-      </c>
-      <c r="AA16">
-        <v>2.905666986951161</v>
-      </c>
-      <c r="AB16">
-        <v>2.899223576818044</v>
-      </c>
-      <c r="AC16">
-        <v>1.854129503993396</v>
-      </c>
-      <c r="AD16">
-        <v>2.069400274665556</v>
-      </c>
       <c r="AE16">
-        <v>2.056851342586286</v>
+        <v>2.433771721344358</v>
       </c>
       <c r="AF16">
-        <v>2.47025997845749</v>
+        <v>2.229247642542287</v>
       </c>
       <c r="AG16">
-        <v>2.456157844175344</v>
+        <v>2.358999556713859</v>
       </c>
       <c r="AH16">
-        <v>3.178750629078753</v>
+        <v>0.6599234717970859</v>
       </c>
       <c r="AI16">
-        <v>4.74442712952825</v>
+        <v>0.9582724917052587</v>
       </c>
       <c r="AJ16">
-        <v>2.656212438505845</v>
+        <v>1.582150300418306</v>
       </c>
       <c r="AK16">
-        <v>2.982321066053917</v>
+        <v>1.324283050325015</v>
       </c>
       <c r="AL16">
-        <v>3.094432991283247</v>
+        <v>2.700663803921799</v>
       </c>
       <c r="AM16">
-        <v>3.41788144952242</v>
+        <v>1.386772772629241</v>
       </c>
       <c r="AN16">
-        <v>1.495530390347999</v>
+        <v>1.27347919322387</v>
       </c>
       <c r="AO16">
         <v>1.27347919322387</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>1.27347919322387</v>
       </c>
-      <c r="BA16">
-        <v>1.27347919322387</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>2.896181448461377</v>
-      </c>
-      <c r="AD17">
-        <v>2.891668106948453</v>
-      </c>
-      <c r="AE17">
-        <v>2.852385144676184</v>
-      </c>
-      <c r="AF17">
-        <v>2.572082596887459</v>
-      </c>
-      <c r="AG17">
-        <v>2.248859244713008</v>
-      </c>
       <c r="AH17">
-        <v>1.903379991958465</v>
+        <v>2.030062065969385</v>
       </c>
       <c r="AI17">
-        <v>1.911596076312705</v>
+        <v>1.907023604270441</v>
       </c>
       <c r="AJ17">
-        <v>1.753471553489772</v>
+        <v>2.050710065226147</v>
       </c>
       <c r="AK17">
-        <v>2.26181103369234</v>
+        <v>2.080813569776696</v>
       </c>
       <c r="AL17">
-        <v>3.709256662779725</v>
+        <v>2.813733698830267</v>
       </c>
       <c r="AM17">
-        <v>4.518635225266698</v>
+        <v>0.8813242377093244</v>
       </c>
       <c r="AN17">
-        <v>2.320052410719797</v>
+        <v>0.4287685802702779</v>
       </c>
       <c r="AO17">
-        <v>-1.359183478082948</v>
+        <v>-0.5025420863900898</v>
       </c>
       <c r="AP17">
-        <v>-1.770033892097977</v>
+        <v>-0.185315122156382</v>
       </c>
       <c r="AQ17">
-        <v>-0.6902932880100465</v>
+        <v>-0.9537175292835154</v>
       </c>
       <c r="AR17">
-        <v>-1.396072416567873</v>
+        <v>-1.339436245206127</v>
       </c>
       <c r="AS17">
         <v>-1.339436245206127</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>-1.339436245206127</v>
       </c>
-      <c r="BA17">
-        <v>-1.339436245206127</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>2.181996052405832</v>
-      </c>
-      <c r="AH18">
-        <v>2.250543904115143</v>
-      </c>
-      <c r="AI18">
-        <v>2.157418026802493</v>
-      </c>
-      <c r="AJ18">
-        <v>1.892550870823939</v>
-      </c>
-      <c r="AK18">
-        <v>1.801568252400854</v>
-      </c>
       <c r="AL18">
-        <v>1.845679262083366</v>
+        <v>2.331302864153018</v>
       </c>
       <c r="AM18">
-        <v>2.393226963573714</v>
+        <v>1.729606009313156</v>
       </c>
       <c r="AN18">
-        <v>1.38408945982178</v>
+        <v>1.632639074358488</v>
       </c>
       <c r="AO18">
-        <v>2.424398292823859</v>
+        <v>1.517427911430702</v>
       </c>
       <c r="AP18">
-        <v>1.627576987871993</v>
+        <v>1.715279842342743</v>
       </c>
       <c r="AQ18">
-        <v>2.32542493162331</v>
+        <v>0.9049225073274991</v>
       </c>
       <c r="AR18">
-        <v>-3.455348590137297</v>
+        <v>-0.6598239038080322</v>
       </c>
       <c r="AS18">
-        <v>-2.765539321179955</v>
+        <v>-2.371854438773213</v>
       </c>
       <c r="AT18">
-        <v>-3.192473321073452</v>
+        <v>-2.5174493871855</v>
       </c>
       <c r="AU18">
-        <v>-2.92816293250372</v>
+        <v>-3.303819519576723</v>
       </c>
       <c r="AV18">
-        <v>-3.39661216620909</v>
+        <v>-3.451527003230626</v>
       </c>
       <c r="AW18">
         <v>-3.451527003230626</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>-3.451527003230626</v>
       </c>
-      <c r="BA18">
-        <v>-3.451527003230626</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>2.230831226760133</v>
-      </c>
-      <c r="AL19">
-        <v>2.355198655721336</v>
-      </c>
-      <c r="AM19">
-        <v>2.504600761553366</v>
-      </c>
-      <c r="AN19">
-        <v>2.08382299734704</v>
-      </c>
-      <c r="AO19">
-        <v>2.733852620130661</v>
-      </c>
       <c r="AP19">
-        <v>2.632936346113524</v>
+        <v>1.65517688847745</v>
       </c>
       <c r="AQ19">
-        <v>2.626098974328106</v>
+        <v>1.853878336645232</v>
       </c>
       <c r="AR19">
-        <v>-0.3802837230947875</v>
+        <v>1.635646651659406</v>
       </c>
       <c r="AS19">
-        <v>0.09436028892164661</v>
+        <v>1.196659994305449</v>
       </c>
       <c r="AT19">
-        <v>0.4266478655134076</v>
+        <v>1.089612584330668</v>
       </c>
       <c r="AU19">
-        <v>0.6927922959721888</v>
+        <v>-0.3655818470008065</v>
       </c>
       <c r="AV19">
-        <v>-0.3369494081789437</v>
+        <v>-1.070961900287937</v>
       </c>
       <c r="AW19">
-        <v>-1.123002263566031</v>
+        <v>-1.436963918858969</v>
       </c>
       <c r="AX19">
-        <v>-1.510559672577028</v>
+        <v>-1.652703512303566</v>
       </c>
       <c r="AY19">
-        <v>-1.657630308694935</v>
+        <v>-1.704805397136089</v>
       </c>
       <c r="AZ19">
-        <v>-1.67392582565723</v>
-      </c>
-      <c r="BA19">
         <v>-1.75044229618867</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>1.571144157480564</v>
-      </c>
-      <c r="AP20">
-        <v>1.467478035333536</v>
-      </c>
-      <c r="AQ20">
-        <v>1.592794817556142</v>
-      </c>
-      <c r="AR20">
-        <v>0.7370526814818978</v>
-      </c>
-      <c r="AS20">
-        <v>0.9230846597056308</v>
-      </c>
       <c r="AT20">
-        <v>0.8936826136602072</v>
+        <v>1.412018118185099</v>
       </c>
       <c r="AU20">
-        <v>1.510432721646504</v>
+        <v>0.9129647504396488</v>
       </c>
       <c r="AV20">
-        <v>1.368519649583089</v>
+        <v>0.6686113921051895</v>
       </c>
       <c r="AW20">
-        <v>1.056399611690195</v>
+        <v>0.5903916006237075</v>
       </c>
       <c r="AX20">
-        <v>0.5198971871075209</v>
+        <v>0.4469810487905734</v>
       </c>
       <c r="AY20">
-        <v>0.4486578513538175</v>
+        <v>0.1460701281005727</v>
       </c>
       <c r="AZ20">
-        <v>1.204607811081226</v>
-      </c>
-      <c r="BA20">
-        <v>0.7295772846297677</v>
+        <v>-0.1564272439962933</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>0.3422045598358014</v>
-      </c>
-      <c r="AT21">
-        <v>0.3303630646635192</v>
-      </c>
-      <c r="AU21">
-        <v>0.4347757651879114</v>
-      </c>
-      <c r="AV21">
-        <v>0.304720530787228</v>
-      </c>
-      <c r="AW21">
-        <v>0.9851042417705402</v>
-      </c>
       <c r="AX21">
-        <v>0.6570922323788642</v>
+        <v>0.6478620066787233</v>
       </c>
       <c r="AY21">
-        <v>0.6900054142958689</v>
+        <v>0.2977127898601273</v>
       </c>
       <c r="AZ21">
-        <v>1.898118939104165</v>
-      </c>
-      <c r="BA21">
-        <v>2.342200249095283</v>
+        <v>0.03402167163586434</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>0.3990682155961878</v>
-      </c>
-      <c r="AX22">
-        <v>0.2916178635971267</v>
-      </c>
-      <c r="AY22">
-        <v>0.2790286427338806</v>
-      </c>
-      <c r="AZ22">
-        <v>0.4845832252091453</v>
-      </c>
-      <c r="BA22">
-        <v>1.93775790287003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>0.4889527588235465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>3.278383090085746</v>
       </c>
       <c r="AG17">
-        <v>2.133862376612439</v>
+        <v>2.503164675968428</v>
       </c>
       <c r="AH17">
         <v>1.666553973046048</v>
@@ -2415,19 +2415,19 @@
         <v>2.401026764575831</v>
       </c>
       <c r="AG18">
-        <v>1.412539570439053</v>
+        <v>1.934186959725781</v>
       </c>
       <c r="AH18">
-        <v>-0.4512719783814068</v>
+        <v>0.7837484735428113</v>
       </c>
       <c r="AI18">
-        <v>-1.801793552285647</v>
+        <v>0.4087651970921646</v>
       </c>
       <c r="AJ18">
-        <v>2.877357105987888</v>
+        <v>2.234912758048124</v>
       </c>
       <c r="AK18">
-        <v>1.773820722495745</v>
+        <v>1.790997941815009</v>
       </c>
       <c r="AL18">
         <v>1.879266440112803</v>
@@ -2486,31 +2486,31 @@
         <v>2.064559687367384</v>
       </c>
       <c r="AG19">
-        <v>2.112539585625517</v>
+        <v>2.097284555421375</v>
       </c>
       <c r="AH19">
-        <v>2.245560033327831</v>
+        <v>2.010249486443705</v>
       </c>
       <c r="AI19">
-        <v>1.696367270021448</v>
+        <v>2.174074899372003</v>
       </c>
       <c r="AJ19">
-        <v>2.770626214993133</v>
+        <v>2.383575743868915</v>
       </c>
       <c r="AK19">
-        <v>2.446369413529137</v>
+        <v>2.420714079882469</v>
       </c>
       <c r="AL19">
-        <v>1.081814991510499</v>
+        <v>1.897396692213404</v>
       </c>
       <c r="AM19">
-        <v>-0.1058999733161259</v>
+        <v>0.0830717359810107</v>
       </c>
       <c r="AN19">
-        <v>-0.4001895765463725</v>
+        <v>0.08570788764348247</v>
       </c>
       <c r="AO19">
-        <v>-2.404913754290983</v>
+        <v>-2.066535408877046</v>
       </c>
       <c r="AP19">
         <v>-2.620683231370946</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>2.202339983834167</v>
-      </c>
       <c r="AJ20">
-        <v>2.702933053438183</v>
+        <v>2.455295191272122</v>
       </c>
       <c r="AK20">
-        <v>2.635745408015389</v>
+        <v>2.581497007213929</v>
       </c>
       <c r="AL20">
-        <v>2.70733181288576</v>
+        <v>2.629292277546535</v>
       </c>
       <c r="AM20">
-        <v>2.729902493405767</v>
+        <v>2.675855470842681</v>
       </c>
       <c r="AN20">
-        <v>2.524513388369543</v>
+        <v>2.96889299227252</v>
       </c>
       <c r="AO20">
-        <v>1.366747064788676</v>
+        <v>1.867721202249806</v>
       </c>
       <c r="AP20">
-        <v>-1.174318230871441</v>
+        <v>0.995548086544229</v>
       </c>
       <c r="AQ20">
-        <v>-3.321926039826262</v>
+        <v>-2.434555341268407</v>
       </c>
       <c r="AR20">
-        <v>-2.321114556364801</v>
+        <v>-1.778873321846652</v>
       </c>
       <c r="AS20">
-        <v>-2.901570548279864</v>
+        <v>-2.622205600593475</v>
       </c>
       <c r="AT20">
         <v>-3.036556262700274</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>2.56534025497055</v>
-      </c>
       <c r="AN21">
-        <v>2.224371228324951</v>
+        <v>2.551320132484913</v>
       </c>
       <c r="AO21">
-        <v>1.889793696628117</v>
+        <v>1.990014255191186</v>
       </c>
       <c r="AP21">
-        <v>2.018559857510294</v>
+        <v>1.850614521580529</v>
       </c>
       <c r="AQ21">
-        <v>1.506553781929298</v>
+        <v>2.144506316663386</v>
       </c>
       <c r="AR21">
-        <v>1.637366184014355</v>
+        <v>2.001423525630042</v>
       </c>
       <c r="AS21">
-        <v>1.175840608617551</v>
+        <v>1.705079001006782</v>
       </c>
       <c r="AT21">
-        <v>0.07123445333143685</v>
+        <v>1.480960099708817</v>
       </c>
       <c r="AU21">
-        <v>-1.953081240592103</v>
+        <v>-1.294632054637612</v>
       </c>
       <c r="AV21">
-        <v>-0.9245282159112467</v>
+        <v>-0.3329345025757879</v>
       </c>
       <c r="AW21">
-        <v>-2.859191689251428</v>
+        <v>-2.557425278522063</v>
       </c>
       <c r="AX21">
         <v>-2.953443685011514</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>1.329135745040255</v>
-      </c>
       <c r="AR22">
-        <v>1.354162375390211</v>
+        <v>1.503935995848149</v>
       </c>
       <c r="AS22">
-        <v>1.259456746315268</v>
+        <v>1.359024777562623</v>
       </c>
       <c r="AT22">
-        <v>1.234861032266421</v>
+        <v>1.252917436750844</v>
       </c>
       <c r="AU22">
-        <v>0.8938306900690307</v>
+        <v>1.098524732799055</v>
       </c>
       <c r="AV22">
-        <v>0.9277865862836965</v>
+        <v>1.343930035002616</v>
       </c>
       <c r="AW22">
-        <v>-0.3916886409131459</v>
+        <v>0.2347633540425553</v>
       </c>
       <c r="AX22">
-        <v>-1.196842846539037</v>
+        <v>-0.3708115103701948</v>
       </c>
       <c r="AY22">
-        <v>-0.2732731229103447</v>
+        <v>-0.1234681467954801</v>
       </c>
       <c r="AZ22">
-        <v>0.2384226118222088</v>
+        <v>0.2722169029249821</v>
       </c>
       <c r="BA22">
-        <v>-1.131442475565558</v>
+        <v>-0.9404639964518013</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>0.8513921589285323</v>
-      </c>
       <c r="AV23">
-        <v>0.8661472674448056</v>
+        <v>1.004816049776336</v>
       </c>
       <c r="AW23">
-        <v>0.6138314487633023</v>
+        <v>0.6767316352137565</v>
       </c>
       <c r="AX23">
-        <v>0.661692222324195</v>
+        <v>0.6048462768229124</v>
       </c>
       <c r="AY23">
-        <v>0.7812052424394755</v>
+        <v>0.6498810267316468</v>
       </c>
       <c r="AZ23">
-        <v>0.8054161303035379</v>
+        <v>0.9256757278928385</v>
       </c>
       <c r="BA23">
-        <v>-0.4808467302335195</v>
+        <v>0.05194865208939525</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>0.8654913160464517</v>
-      </c>
       <c r="AZ24">
-        <v>0.8025609112217502</v>
+        <v>0.9190260537070394</v>
       </c>
       <c r="BA24">
-        <v>0.4724435252193793</v>
+        <v>0.6262643922667621</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>-0.9140166223623458</v>
+      </c>
+      <c r="G3">
+        <v>-1.172517689227226</v>
+      </c>
+      <c r="H3">
+        <v>-1.770819286696002</v>
+      </c>
+      <c r="I3">
+        <v>-2.631732184580982</v>
+      </c>
+      <c r="J3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="K3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="L3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="M3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="N3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="O3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="P3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Q3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="R3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="S3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="T3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="U3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="V3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="W3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="X3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Y3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="Z3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AA3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AB3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AC3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AD3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AE3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AF3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AG3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AH3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AI3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AJ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AK3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AL3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AM3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AN3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AO3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AP3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AQ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AR3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AS3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AT3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AU3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AV3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AW3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AX3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AY3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="AZ3">
+        <v>-3.712113773657133</v>
+      </c>
+      <c r="BA3">
+        <v>-3.712113773657133</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>4.930115226412357</v>
-      </c>
-      <c r="C4">
-        <v>4.680314326616597</v>
-      </c>
-      <c r="D4">
-        <v>4.717522427777077</v>
-      </c>
-      <c r="E4">
-        <v>4.717522427777077</v>
-      </c>
-      <c r="F4">
-        <v>3.33720699899116</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>3.33720699899116</v>
+        <v>-2.034793027572002</v>
       </c>
       <c r="H4">
-        <v>3.33720699899116</v>
+        <v>2.585942866987878</v>
       </c>
       <c r="I4">
-        <v>3.33720699899116</v>
+        <v>2.504381985397752</v>
       </c>
       <c r="J4">
-        <v>3.33720699899116</v>
+        <v>1.62008141490082</v>
       </c>
       <c r="K4">
-        <v>3.33720699899116</v>
+        <v>1.62008141490082</v>
       </c>
       <c r="L4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="M4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="N4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="O4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="P4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Q4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="R4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="S4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="T4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="U4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="V4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="W4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="X4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Y4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="Z4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AA4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AB4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AC4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AD4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AE4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AF4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AG4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AH4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AI4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AJ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AK4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AL4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AM4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AN4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AO4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AP4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AQ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AR4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AS4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AT4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AU4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AV4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AW4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AX4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AY4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="AZ4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
       <c r="BA4">
-        <v>3.33720699899116</v>
+        <v>2.363997455008704</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>1.457587285166628</v>
-      </c>
-      <c r="E5">
-        <v>1.24900865781854</v>
-      </c>
-      <c r="F5">
-        <v>0.6130849409560435</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>0.6130849409560657</v>
+        <v>0.6952816881563129</v>
       </c>
       <c r="H5">
-        <v>-0.4029460988799416</v>
+        <v>4.10977504614245</v>
       </c>
       <c r="I5">
-        <v>-0.4029460988799416</v>
+        <v>3.880748577052495</v>
       </c>
       <c r="J5">
-        <v>-0.4029460988799416</v>
+        <v>4.253963781362402</v>
       </c>
       <c r="K5">
-        <v>-0.4029460988799416</v>
+        <v>4.173723649544514</v>
       </c>
       <c r="L5">
-        <v>-0.4029460988799416</v>
+        <v>4.453070210728716</v>
       </c>
       <c r="M5">
-        <v>-0.4029460988799416</v>
+        <v>4.453070210728716</v>
       </c>
       <c r="N5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="O5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="P5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Q5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="R5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="S5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="T5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="U5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="V5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="W5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="X5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Y5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="Z5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AA5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AB5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AC5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AD5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AE5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AF5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AG5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AH5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AI5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AJ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AK5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AL5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AM5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AN5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AO5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AP5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AQ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AR5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AS5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AT5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AU5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AV5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AW5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AX5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AY5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="AZ5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
       <c r="BA5">
-        <v>-0.4029460988799416</v>
+        <v>6.087058041562399</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>-0.9140166223623458</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-1.172517689227215</v>
+        <v>1.330928428015432</v>
       </c>
       <c r="H6">
-        <v>-1.770819286696013</v>
+        <v>2.463730939041242</v>
       </c>
       <c r="I6">
-        <v>-2.631732184580982</v>
+        <v>2.936333428994153</v>
       </c>
       <c r="J6">
-        <v>-3.712113773657133</v>
+        <v>2.863367440851095</v>
       </c>
       <c r="K6">
-        <v>-3.712113773657133</v>
+        <v>2.174296999091485</v>
       </c>
       <c r="L6">
-        <v>-3.712113773657133</v>
+        <v>1.752870900283909</v>
       </c>
       <c r="M6">
-        <v>-3.712113773657133</v>
+        <v>1.425327874655236</v>
       </c>
       <c r="N6">
-        <v>-3.712113773657133</v>
+        <v>2.337267913147589</v>
       </c>
       <c r="O6">
-        <v>-3.712113773657133</v>
+        <v>2.45956484535661</v>
       </c>
       <c r="P6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Q6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="R6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="S6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="T6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="U6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="V6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="W6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="X6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Y6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="Z6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AA6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AB6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AC6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AD6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AE6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AF6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AG6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AH6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AI6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AJ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AK6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AL6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AM6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AN6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AO6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AP6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AQ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AR6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AS6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AT6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AU6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AV6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AW6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AX6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AY6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="AZ6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
       <c r="BA6">
-        <v>-3.712113773657133</v>
+        <v>3.831642495756782</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>-2.034793027571991</v>
-      </c>
-      <c r="H7">
-        <v>2.585942866987878</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>2.504381985397774</v>
+        <v>2.29674413706733</v>
       </c>
       <c r="J7">
-        <v>1.62008141490082</v>
+        <v>2.063107039814849</v>
       </c>
       <c r="K7">
-        <v>1.62008141490082</v>
+        <v>1.706732094556873</v>
       </c>
       <c r="L7">
-        <v>2.363997455008682</v>
+        <v>1.520397254708405</v>
       </c>
       <c r="M7">
-        <v>2.363997455008682</v>
+        <v>-1.942476814417493</v>
       </c>
       <c r="N7">
-        <v>2.363997455008682</v>
+        <v>-1.479696720105184</v>
       </c>
       <c r="O7">
-        <v>2.363997455008682</v>
+        <v>-1.188888712978431</v>
       </c>
       <c r="P7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Q7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="R7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="S7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="T7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="U7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="V7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="W7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="X7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Y7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="Z7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AA7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AB7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AC7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AD7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AE7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AF7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AG7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AH7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AI7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AJ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AK7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AL7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AM7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AN7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AO7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AP7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AQ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AR7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AS7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AT7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AU7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AV7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AW7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AX7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AY7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="AZ7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
       <c r="BA7">
-        <v>2.363997455008682</v>
+        <v>-0.492746714819392</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>0.6952816881563351</v>
-      </c>
-      <c r="H8">
-        <v>4.109775046142405</v>
-      </c>
-      <c r="I8">
-        <v>3.880748577052473</v>
-      </c>
-      <c r="J8">
-        <v>4.253963781362402</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>4.173723649544492</v>
+        <v>1.958998008384261</v>
       </c>
       <c r="L8">
-        <v>4.453070210728693</v>
+        <v>1.9802559733896</v>
       </c>
       <c r="M8">
-        <v>4.453070210728693</v>
+        <v>1.288975737543674</v>
       </c>
       <c r="N8">
-        <v>6.087058041562377</v>
+        <v>2.503951807923088</v>
       </c>
       <c r="O8">
-        <v>6.087058041562377</v>
+        <v>4.926006686093287</v>
       </c>
       <c r="P8">
-        <v>6.087058041562377</v>
+        <v>3.900127535411246</v>
       </c>
       <c r="Q8">
-        <v>6.087058041562377</v>
+        <v>3.948953894481644</v>
       </c>
       <c r="R8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="S8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="T8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="U8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="V8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="W8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="X8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="Y8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="Z8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AA8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AB8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AC8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AD8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AE8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AF8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AG8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AH8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AI8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AJ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AK8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AL8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AM8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AN8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AO8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AP8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AQ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AR8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AS8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AT8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AU8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AV8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AW8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AX8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AY8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="AZ8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
       <c r="BA8">
-        <v>6.087058041562377</v>
+        <v>4.135644887697842</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>1.33092842801541</v>
-      </c>
-      <c r="H9">
-        <v>2.463730939041242</v>
-      </c>
-      <c r="I9">
-        <v>2.936333428994109</v>
-      </c>
-      <c r="J9">
-        <v>2.863367440851095</v>
-      </c>
-      <c r="K9">
-        <v>2.174296999091507</v>
-      </c>
-      <c r="L9">
-        <v>1.752870900283909</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>1.425327874655236</v>
+        <v>1.516348035330872</v>
       </c>
       <c r="N9">
-        <v>2.337267913147567</v>
+        <v>2.017522105308323</v>
       </c>
       <c r="O9">
-        <v>2.459564845356588</v>
+        <v>2.643411312704802</v>
       </c>
       <c r="P9">
-        <v>3.831642495756782</v>
+        <v>1.194160460927862</v>
       </c>
       <c r="Q9">
-        <v>3.831642495756782</v>
+        <v>0.7614971083056421</v>
       </c>
       <c r="R9">
-        <v>3.831642495756782</v>
+        <v>0.03947433952959933</v>
       </c>
       <c r="S9">
-        <v>3.831642495756782</v>
+        <v>-0.3952646468157739</v>
       </c>
       <c r="T9">
-        <v>3.831642495756782</v>
+        <v>-0.5740767529984647</v>
       </c>
       <c r="U9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="V9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="W9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="X9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="Y9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="Z9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AA9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AB9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AC9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AD9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AE9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AF9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AG9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AH9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AI9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AJ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AK9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AL9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AM9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AN9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AO9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AP9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AQ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AR9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AS9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AT9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AU9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AV9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AW9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AX9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AY9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="AZ9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
       <c r="BA9">
-        <v>3.831642495756782</v>
+        <v>-0.8017097776176652</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>2.29674413706733</v>
-      </c>
-      <c r="J10">
-        <v>2.063107039814871</v>
-      </c>
-      <c r="K10">
-        <v>1.706732094556851</v>
-      </c>
-      <c r="L10">
-        <v>1.520397254708405</v>
-      </c>
-      <c r="M10">
-        <v>-1.942476814417471</v>
-      </c>
-      <c r="N10">
-        <v>-1.479696720105139</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>-1.188888712978442</v>
+        <v>2.322272604108555</v>
       </c>
       <c r="P10">
-        <v>-0.492746714819392</v>
+        <v>2.221259922193042</v>
       </c>
       <c r="Q10">
-        <v>-0.492746714819392</v>
+        <v>2.348955682567344</v>
       </c>
       <c r="R10">
-        <v>-0.492746714819392</v>
+        <v>1.459149667419735</v>
       </c>
       <c r="S10">
-        <v>-0.492746714819392</v>
+        <v>3.004126378695826</v>
       </c>
       <c r="T10">
-        <v>-0.492746714819392</v>
+        <v>2.192778679161966</v>
       </c>
       <c r="U10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="V10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="W10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="X10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="Y10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="Z10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AA10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AB10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AC10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AD10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AE10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AF10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AG10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AH10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AI10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AJ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AK10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AL10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AM10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AN10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AO10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AP10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AQ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AR10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AS10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AT10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AU10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AV10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AW10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AX10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AY10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="AZ10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
       <c r="BA10">
-        <v>-0.492746714819392</v>
+        <v>2.496356089727558</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>1.958998008384238</v>
-      </c>
-      <c r="L11">
-        <v>1.9802559733896</v>
-      </c>
-      <c r="M11">
-        <v>1.288975737543607</v>
-      </c>
-      <c r="N11">
-        <v>2.503951807923066</v>
-      </c>
-      <c r="O11">
-        <v>4.926006686093287</v>
-      </c>
-      <c r="P11">
-        <v>3.900127535411246</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.948953894481622</v>
+        <v>2.269443154892259</v>
       </c>
       <c r="R11">
-        <v>4.13564488769782</v>
+        <v>2.113570335434956</v>
       </c>
       <c r="S11">
-        <v>4.13564488769782</v>
+        <v>2.358460376580607</v>
       </c>
       <c r="T11">
-        <v>4.13564488769782</v>
+        <v>1.586376095629216</v>
       </c>
       <c r="U11">
-        <v>4.13564488769782</v>
+        <v>2.38452527692119</v>
       </c>
       <c r="V11">
-        <v>4.13564488769782</v>
+        <v>3.408364488606752</v>
       </c>
       <c r="W11">
-        <v>4.13564488769782</v>
+        <v>2.964724359563808</v>
       </c>
       <c r="X11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="Y11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="Z11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AA11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AB11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AC11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AD11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AE11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AF11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AG11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AH11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AI11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AJ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AK11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AL11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AM11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AN11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AO11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AP11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AQ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AR11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AS11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AT11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AU11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AV11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AW11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AX11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AY11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="AZ11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
       <c r="BA11">
-        <v>4.13564488769782</v>
+        <v>2.955681454251202</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>1.51634803533085</v>
-      </c>
-      <c r="N12">
-        <v>2.017522105308323</v>
-      </c>
-      <c r="O12">
-        <v>2.643411312704802</v>
-      </c>
-      <c r="P12">
-        <v>1.194160460927884</v>
-      </c>
-      <c r="Q12">
-        <v>0.7614971083056643</v>
-      </c>
-      <c r="R12">
-        <v>0.03947433952959933</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>-0.3952646468157517</v>
+        <v>2.245827478371054</v>
       </c>
       <c r="T12">
-        <v>-0.5740767529984425</v>
+        <v>2.069091357482433</v>
       </c>
       <c r="U12">
-        <v>-0.8017097776176652</v>
+        <v>2.349880264276161</v>
       </c>
       <c r="V12">
-        <v>-0.8017097776176652</v>
+        <v>2.570658574505447</v>
       </c>
       <c r="W12">
-        <v>-0.8017097776176652</v>
+        <v>1.512747556564675</v>
       </c>
       <c r="X12">
-        <v>-0.8017097776176652</v>
+        <v>2.677874785158707</v>
       </c>
       <c r="Y12">
-        <v>-0.8017097776176652</v>
+        <v>2.474496385100733</v>
       </c>
       <c r="Z12">
-        <v>-0.8017097776176652</v>
+        <v>2.799070570134488</v>
       </c>
       <c r="AA12">
-        <v>-0.8017097776176652</v>
+        <v>2.127568629379395</v>
       </c>
       <c r="AB12">
-        <v>-0.8017097776176652</v>
+        <v>2.213463536809535</v>
       </c>
       <c r="AC12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AD12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AE12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AF12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AG12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AH12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AI12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AJ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AK12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AL12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AM12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AN12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AO12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AP12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AQ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AR12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AS12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AT12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AU12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AV12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AW12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AX12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AY12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="AZ12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
       <c r="BA12">
-        <v>-0.8017097776176652</v>
+        <v>2.115640452469392</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>2.322272604108555</v>
-      </c>
-      <c r="P13">
-        <v>2.221259922193042</v>
-      </c>
-      <c r="Q13">
-        <v>2.348955682567344</v>
-      </c>
-      <c r="R13">
-        <v>1.459149667419779</v>
-      </c>
-      <c r="S13">
-        <v>3.004126378695804</v>
-      </c>
-      <c r="T13">
-        <v>2.192778679161944</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>2.496356089727536</v>
+        <v>2.188553558498274</v>
       </c>
       <c r="V13">
-        <v>2.496356089727536</v>
+        <v>2.26671216286638</v>
       </c>
       <c r="W13">
-        <v>2.496356089727536</v>
+        <v>2.136396488383507</v>
       </c>
       <c r="X13">
-        <v>2.496356089727536</v>
+        <v>2.507403033330702</v>
       </c>
       <c r="Y13">
-        <v>2.496356089727536</v>
+        <v>2.141109033939292</v>
       </c>
       <c r="Z13">
-        <v>2.496356089727536</v>
+        <v>2.479713128614192</v>
       </c>
       <c r="AA13">
-        <v>2.496356089727536</v>
+        <v>2.786825287537487</v>
       </c>
       <c r="AB13">
-        <v>2.496356089727536</v>
+        <v>3.746278935679026</v>
       </c>
       <c r="AC13">
-        <v>2.496356089727536</v>
+        <v>4.066325724929976</v>
       </c>
       <c r="AD13">
-        <v>2.496356089727536</v>
+        <v>4.195393191694419</v>
       </c>
       <c r="AE13">
-        <v>2.496356089727536</v>
+        <v>4.197154982163109</v>
       </c>
       <c r="AF13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AG13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AH13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AI13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AJ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AK13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AL13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AM13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AN13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AO13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AP13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AQ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AR13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AS13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AT13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AU13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AV13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AW13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AX13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AY13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="AZ13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
       <c r="BA13">
-        <v>2.496356089727536</v>
+        <v>4.186780469526941</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>2.269443154892237</v>
-      </c>
-      <c r="R14">
-        <v>2.113570335434933</v>
-      </c>
-      <c r="S14">
-        <v>2.358460376580607</v>
-      </c>
-      <c r="T14">
-        <v>1.586376095629216</v>
-      </c>
-      <c r="U14">
-        <v>2.384525276921168</v>
-      </c>
-      <c r="V14">
-        <v>3.40836448860673</v>
-      </c>
-      <c r="W14">
-        <v>2.964724359563786</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>2.95568145425118</v>
+        <v>2.334573951539265</v>
       </c>
       <c r="Y14">
-        <v>2.95568145425118</v>
+        <v>1.935780256696673</v>
       </c>
       <c r="Z14">
-        <v>2.95568145425118</v>
+        <v>1.849175162757732</v>
       </c>
       <c r="AA14">
-        <v>2.95568145425118</v>
+        <v>1.555206765808848</v>
       </c>
       <c r="AB14">
-        <v>2.95568145425118</v>
+        <v>1.868164064786093</v>
       </c>
       <c r="AC14">
-        <v>2.95568145425118</v>
+        <v>2.042884966056935</v>
       </c>
       <c r="AD14">
-        <v>2.95568145425118</v>
+        <v>2.359935293525561</v>
       </c>
       <c r="AE14">
-        <v>2.95568145425118</v>
+        <v>1.899045195796867</v>
       </c>
       <c r="AF14">
-        <v>2.95568145425118</v>
+        <v>3.278383090085746</v>
       </c>
       <c r="AG14">
-        <v>2.95568145425118</v>
+        <v>2.503164675968428</v>
       </c>
       <c r="AH14">
-        <v>2.95568145425118</v>
+        <v>1.666553973046025</v>
       </c>
       <c r="AI14">
-        <v>2.95568145425118</v>
+        <v>1.261381996797706</v>
       </c>
       <c r="AJ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AK14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AL14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AM14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AN14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AO14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AP14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AQ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AR14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AS14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AT14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AU14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AV14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AW14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AX14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AY14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="AZ14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
       <c r="BA14">
-        <v>2.95568145425118</v>
+        <v>1.25858038212967</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>2.245827478371076</v>
-      </c>
-      <c r="T15">
-        <v>2.069091357482455</v>
-      </c>
-      <c r="U15">
-        <v>2.349880264276161</v>
-      </c>
-      <c r="V15">
-        <v>2.570658574505469</v>
-      </c>
-      <c r="W15">
-        <v>1.512747556564698</v>
-      </c>
-      <c r="X15">
-        <v>2.677874785158663</v>
-      </c>
-      <c r="Y15">
-        <v>2.474496385100733</v>
-      </c>
-      <c r="Z15">
-        <v>2.799070570134488</v>
-      </c>
-      <c r="AA15">
-        <v>2.127568629379395</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>2.213463536809535</v>
+        <v>1.757444068398351</v>
       </c>
       <c r="AC15">
-        <v>2.115640452469369</v>
+        <v>2.021145582766581</v>
       </c>
       <c r="AD15">
-        <v>2.115640452469369</v>
+        <v>2.156373603074146</v>
       </c>
       <c r="AE15">
-        <v>2.115640452469369</v>
+        <v>2.205372086670465</v>
       </c>
       <c r="AF15">
-        <v>2.115640452469369</v>
+        <v>2.401026764575831</v>
       </c>
       <c r="AG15">
-        <v>2.115640452469369</v>
+        <v>1.934186959725781</v>
       </c>
       <c r="AH15">
-        <v>2.115640452469369</v>
+        <v>0.7837484735427891</v>
       </c>
       <c r="AI15">
-        <v>2.115640452469369</v>
+        <v>0.4087651970921646</v>
       </c>
       <c r="AJ15">
-        <v>2.115640452469369</v>
+        <v>2.234912758048102</v>
       </c>
       <c r="AK15">
-        <v>2.115640452469369</v>
+        <v>1.790997941815009</v>
       </c>
       <c r="AL15">
-        <v>2.115640452469369</v>
+        <v>1.879266440112781</v>
       </c>
       <c r="AM15">
-        <v>2.115640452469369</v>
+        <v>1.630705607582295</v>
       </c>
       <c r="AN15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AO15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AP15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AQ15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AR15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AS15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AT15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AU15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AV15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AW15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AX15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AY15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="AZ15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
       <c r="BA15">
-        <v>2.115640452469369</v>
+        <v>1.362828756617751</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>2.188553558498252</v>
-      </c>
-      <c r="V16">
-        <v>2.266712162866336</v>
-      </c>
-      <c r="W16">
-        <v>2.136396488383507</v>
-      </c>
-      <c r="X16">
-        <v>2.507403033330702</v>
-      </c>
-      <c r="Y16">
-        <v>2.141109033939292</v>
-      </c>
-      <c r="Z16">
-        <v>2.479713128614147</v>
-      </c>
-      <c r="AA16">
-        <v>2.786825287537487</v>
-      </c>
-      <c r="AB16">
-        <v>3.746278935679004</v>
-      </c>
-      <c r="AC16">
-        <v>4.066325724929976</v>
-      </c>
-      <c r="AD16">
-        <v>4.195393191694419</v>
-      </c>
-      <c r="AE16">
-        <v>4.197154982163109</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>4.186780469526963</v>
+        <v>2.064559687367384</v>
       </c>
       <c r="AG16">
-        <v>4.186780469526963</v>
+        <v>2.097284555421375</v>
       </c>
       <c r="AH16">
-        <v>4.186780469526963</v>
+        <v>2.010249486443705</v>
       </c>
       <c r="AI16">
-        <v>4.186780469526963</v>
+        <v>2.174074899372025</v>
       </c>
       <c r="AJ16">
-        <v>4.186780469526963</v>
+        <v>2.383575743868915</v>
       </c>
       <c r="AK16">
-        <v>4.186780469526963</v>
+        <v>2.420714079882447</v>
       </c>
       <c r="AL16">
-        <v>4.186780469526963</v>
+        <v>1.897396692213427</v>
       </c>
       <c r="AM16">
-        <v>4.186780469526963</v>
+        <v>0.0830717359810107</v>
       </c>
       <c r="AN16">
-        <v>4.186780469526963</v>
+        <v>0.08570788764350468</v>
       </c>
       <c r="AO16">
-        <v>4.186780469526963</v>
+        <v>-2.066535408877035</v>
       </c>
       <c r="AP16">
-        <v>4.186780469526963</v>
+        <v>-2.620683231370935</v>
       </c>
       <c r="AQ16">
-        <v>4.186780469526963</v>
+        <v>-2.165543638380429</v>
       </c>
       <c r="AR16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AS16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AT16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AU16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AV16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AW16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AX16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AY16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="AZ16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
       <c r="BA16">
-        <v>4.186780469526963</v>
+        <v>-2.151676542405401</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>2.334573951539265</v>
-      </c>
-      <c r="Y17">
-        <v>1.935780256696673</v>
-      </c>
-      <c r="Z17">
-        <v>1.849175162757732</v>
-      </c>
-      <c r="AA17">
-        <v>1.555206765808892</v>
-      </c>
-      <c r="AB17">
-        <v>1.868164064786093</v>
-      </c>
-      <c r="AC17">
-        <v>2.042884966056935</v>
-      </c>
-      <c r="AD17">
-        <v>2.359935293525561</v>
-      </c>
-      <c r="AE17">
-        <v>1.899045195796845</v>
-      </c>
-      <c r="AF17">
-        <v>3.278383090085746</v>
-      </c>
-      <c r="AG17">
-        <v>2.503164675968428</v>
-      </c>
-      <c r="AH17">
-        <v>1.666553973046048</v>
-      </c>
-      <c r="AI17">
-        <v>1.261381996797728</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>1.258580382129693</v>
+        <v>2.4552951912721</v>
       </c>
       <c r="AK17">
-        <v>1.258580382129693</v>
+        <v>2.581497007213929</v>
       </c>
       <c r="AL17">
-        <v>1.258580382129693</v>
+        <v>2.629292277546558</v>
       </c>
       <c r="AM17">
-        <v>1.258580382129693</v>
+        <v>2.675855470842659</v>
       </c>
       <c r="AN17">
-        <v>1.258580382129693</v>
+        <v>2.968892992272543</v>
       </c>
       <c r="AO17">
-        <v>1.258580382129693</v>
+        <v>1.867721202249806</v>
       </c>
       <c r="AP17">
-        <v>1.258580382129693</v>
+        <v>0.995548086544229</v>
       </c>
       <c r="AQ17">
-        <v>1.258580382129693</v>
+        <v>-2.434555341268407</v>
       </c>
       <c r="AR17">
-        <v>1.258580382129693</v>
+        <v>-1.778873321846641</v>
       </c>
       <c r="AS17">
-        <v>1.258580382129693</v>
+        <v>-2.622205600593464</v>
       </c>
       <c r="AT17">
-        <v>1.258580382129693</v>
+        <v>-3.036556262700263</v>
       </c>
       <c r="AU17">
-        <v>1.258580382129693</v>
+        <v>-3.961493391105475</v>
       </c>
       <c r="AV17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AW17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AX17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AY17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="AZ17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
       <c r="BA17">
-        <v>1.258580382129693</v>
+        <v>-3.961484026309636</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>1.757444068398351</v>
-      </c>
-      <c r="AC18">
-        <v>2.021145582766581</v>
-      </c>
-      <c r="AD18">
-        <v>2.156373603074146</v>
-      </c>
-      <c r="AE18">
-        <v>2.205372086670465</v>
-      </c>
-      <c r="AF18">
-        <v>2.401026764575831</v>
-      </c>
-      <c r="AG18">
-        <v>1.934186959725781</v>
-      </c>
-      <c r="AH18">
-        <v>0.7837484735428113</v>
-      </c>
-      <c r="AI18">
-        <v>0.4087651970921646</v>
-      </c>
-      <c r="AJ18">
-        <v>2.234912758048124</v>
-      </c>
-      <c r="AK18">
-        <v>1.790997941815009</v>
-      </c>
-      <c r="AL18">
-        <v>1.879266440112803</v>
-      </c>
-      <c r="AM18">
-        <v>1.630705607582317</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>1.362828756617751</v>
+        <v>2.551320132484913</v>
       </c>
       <c r="AO18">
-        <v>1.362828756617751</v>
+        <v>1.990014255191186</v>
       </c>
       <c r="AP18">
-        <v>1.362828756617751</v>
+        <v>1.850614521580551</v>
       </c>
       <c r="AQ18">
-        <v>1.362828756617751</v>
+        <v>2.144506316663364</v>
       </c>
       <c r="AR18">
-        <v>1.362828756617751</v>
+        <v>2.001423525630064</v>
       </c>
       <c r="AS18">
-        <v>1.362828756617751</v>
+        <v>1.705079001006826</v>
       </c>
       <c r="AT18">
-        <v>1.362828756617751</v>
+        <v>1.480960099708817</v>
       </c>
       <c r="AU18">
-        <v>1.362828756617751</v>
+        <v>-1.294632054637579</v>
       </c>
       <c r="AV18">
-        <v>1.362828756617751</v>
+        <v>-0.3329345025757768</v>
       </c>
       <c r="AW18">
-        <v>1.362828756617751</v>
+        <v>-2.557425278522041</v>
       </c>
       <c r="AX18">
-        <v>1.362828756617751</v>
+        <v>-2.953443685011514</v>
       </c>
       <c r="AY18">
-        <v>1.362828756617751</v>
+        <v>-2.939620051521785</v>
       </c>
       <c r="AZ18">
-        <v>1.362828756617751</v>
+        <v>-2.899559879361435</v>
       </c>
       <c r="BA18">
-        <v>1.362828756617751</v>
+        <v>-2.899559879361435</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>2.064559687367384</v>
-      </c>
-      <c r="AG19">
-        <v>2.097284555421375</v>
-      </c>
-      <c r="AH19">
-        <v>2.010249486443705</v>
-      </c>
-      <c r="AI19">
-        <v>2.174074899372003</v>
-      </c>
-      <c r="AJ19">
-        <v>2.383575743868915</v>
-      </c>
-      <c r="AK19">
-        <v>2.420714079882469</v>
-      </c>
-      <c r="AL19">
-        <v>1.897396692213404</v>
-      </c>
-      <c r="AM19">
-        <v>0.0830717359810107</v>
-      </c>
-      <c r="AN19">
-        <v>0.08570788764348247</v>
-      </c>
-      <c r="AO19">
-        <v>-2.066535408877046</v>
-      </c>
-      <c r="AP19">
-        <v>-2.620683231370946</v>
-      </c>
-      <c r="AQ19">
-        <v>-2.165543638380452</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>-2.151676542405412</v>
+        <v>1.503935995848149</v>
       </c>
       <c r="AS19">
-        <v>-2.151676542405412</v>
+        <v>1.359024777562645</v>
       </c>
       <c r="AT19">
-        <v>-2.151676542405412</v>
+        <v>1.252917436750867</v>
       </c>
       <c r="AU19">
-        <v>-2.151676542405412</v>
+        <v>1.098524732799033</v>
       </c>
       <c r="AV19">
-        <v>-2.151676542405412</v>
+        <v>1.343930035002616</v>
       </c>
       <c r="AW19">
-        <v>-2.151676542405412</v>
+        <v>0.2347633540425553</v>
       </c>
       <c r="AX19">
-        <v>-2.151676542405412</v>
+        <v>-0.370811510370217</v>
       </c>
       <c r="AY19">
-        <v>-2.151676542405412</v>
+        <v>-0.1234681467954801</v>
       </c>
       <c r="AZ19">
-        <v>-2.151676542405412</v>
+        <v>0.2722169029249821</v>
       </c>
       <c r="BA19">
-        <v>-2.151676542405412</v>
+        <v>-0.9404639964518013</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>2.455295191272122</v>
-      </c>
-      <c r="AK20">
-        <v>2.581497007213929</v>
-      </c>
-      <c r="AL20">
-        <v>2.629292277546535</v>
-      </c>
-      <c r="AM20">
-        <v>2.675855470842681</v>
-      </c>
-      <c r="AN20">
-        <v>2.96889299227252</v>
-      </c>
-      <c r="AO20">
-        <v>1.867721202249806</v>
-      </c>
-      <c r="AP20">
-        <v>0.995548086544229</v>
-      </c>
-      <c r="AQ20">
-        <v>-2.434555341268407</v>
-      </c>
-      <c r="AR20">
-        <v>-1.778873321846652</v>
-      </c>
-      <c r="AS20">
-        <v>-2.622205600593475</v>
-      </c>
-      <c r="AT20">
-        <v>-3.036556262700274</v>
-      </c>
-      <c r="AU20">
-        <v>-3.961493391105464</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-3.961484026309647</v>
+        <v>1.004816049776358</v>
       </c>
       <c r="AW20">
-        <v>-3.961484026309647</v>
+        <v>0.6767316352137565</v>
       </c>
       <c r="AX20">
-        <v>-3.961484026309647</v>
+        <v>0.6048462768229124</v>
       </c>
       <c r="AY20">
-        <v>-3.961484026309647</v>
+        <v>0.649881026731669</v>
       </c>
       <c r="AZ20">
-        <v>-3.961484026309647</v>
+        <v>0.9256757278928385</v>
       </c>
       <c r="BA20">
-        <v>-3.961484026309647</v>
+        <v>0.05194865208939525</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>2.551320132484913</v>
-      </c>
-      <c r="AO21">
-        <v>1.990014255191186</v>
-      </c>
-      <c r="AP21">
-        <v>1.850614521580529</v>
-      </c>
-      <c r="AQ21">
-        <v>2.144506316663386</v>
-      </c>
-      <c r="AR21">
-        <v>2.001423525630042</v>
-      </c>
-      <c r="AS21">
-        <v>1.705079001006782</v>
-      </c>
-      <c r="AT21">
-        <v>1.480960099708817</v>
-      </c>
-      <c r="AU21">
-        <v>-1.294632054637612</v>
-      </c>
-      <c r="AV21">
-        <v>-0.3329345025757879</v>
-      </c>
-      <c r="AW21">
-        <v>-2.557425278522063</v>
-      </c>
-      <c r="AX21">
-        <v>-2.953443685011514</v>
-      </c>
-      <c r="AY21">
-        <v>-2.939620051521785</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-2.899559879361424</v>
+        <v>0.9190260537070394</v>
       </c>
       <c r="BA21">
-        <v>-2.899559879361424</v>
+        <v>0.6262643922667621</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>1.503935995848149</v>
-      </c>
-      <c r="AS22">
-        <v>1.359024777562623</v>
-      </c>
-      <c r="AT22">
-        <v>1.252917436750844</v>
-      </c>
-      <c r="AU22">
-        <v>1.098524732799055</v>
-      </c>
-      <c r="AV22">
-        <v>1.343930035002616</v>
-      </c>
-      <c r="AW22">
-        <v>0.2347633540425553</v>
-      </c>
-      <c r="AX22">
-        <v>-0.3708115103701948</v>
-      </c>
-      <c r="AY22">
-        <v>-0.1234681467954801</v>
-      </c>
-      <c r="AZ22">
-        <v>0.2722169029249821</v>
-      </c>
-      <c r="BA22">
-        <v>-0.9404639964518013</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>1.004816049776336</v>
-      </c>
-      <c r="AW23">
-        <v>0.6767316352137565</v>
-      </c>
-      <c r="AX23">
-        <v>0.6048462768229124</v>
-      </c>
-      <c r="AY23">
-        <v>0.6498810267316468</v>
-      </c>
-      <c r="AZ23">
-        <v>0.9256757278928385</v>
-      </c>
-      <c r="BA23">
-        <v>0.05194865208939525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>0.9190260537070394</v>
-      </c>
-      <c r="BA24">
-        <v>0.6262643922667621</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_CONSTR_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>-3.712113773657133</v>
       </c>
+      <c r="BB3">
+        <v>-3.712113773657133</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>2.363997455008704</v>
       </c>
+      <c r="BB4">
+        <v>2.363997455008704</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>6.087058041562399</v>
       </c>
+      <c r="BB5">
+        <v>6.087058041562399</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>3.831642495756782</v>
       </c>
+      <c r="BB6">
+        <v>3.831642495756782</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>-0.492746714819392</v>
       </c>
+      <c r="BB7">
+        <v>-0.492746714819392</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>4.135644887697842</v>
       </c>
+      <c r="BB8">
+        <v>4.135644887697842</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>-0.8017097776176652</v>
       </c>
+      <c r="BB9">
+        <v>-0.8017097776176652</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>2.496356089727558</v>
       </c>
+      <c r="BB10">
+        <v>2.496356089727558</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>2.955681454251202</v>
       </c>
+      <c r="BB11">
+        <v>2.955681454251202</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>2.115640452469392</v>
       </c>
+      <c r="BB12">
+        <v>2.115640452469392</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>4.186780469526941</v>
       </c>
+      <c r="BB13">
+        <v>4.186780469526941</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>1.25858038212967</v>
       </c>
+      <c r="BB14">
+        <v>1.25858038212967</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>1.362828756617751</v>
       </c>
+      <c r="BB15">
+        <v>1.362828756617751</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>-2.151676542405401</v>
       </c>
+      <c r="BB16">
+        <v>-2.151676542405401</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>-3.961484026309636</v>
       </c>
+      <c r="BB17">
+        <v>-3.961484026309636</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>-2.899559879361435</v>
       </c>
+      <c r="BB18">
+        <v>-2.899559879361435</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>-0.9404639964518013</v>
       </c>
+      <c r="BB19">
+        <v>-0.7200474048664085</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>0.05194865208939525</v>
       </c>
+      <c r="BB20">
+        <v>-0.2284091334091687</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>0.6262643922667621</v>
       </c>
+      <c r="BB21">
+        <v>0.534104719104489</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
